--- a/StatLedger/数据表/数据集_关键指标看板.xlsx
+++ b/StatLedger/数据表/数据集_关键指标看板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24330" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>QUOTA_NAME</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>00717</t>
+  </si>
+  <si>
+    <t>清水池增减</t>
+  </si>
+  <si>
+    <t>29861</t>
   </si>
 </sst>
 </file>
@@ -175,66 +181,118 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +306,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,52 +325,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,16 +562,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +585,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,19 +638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,15 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,136 +678,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -1149,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1329,6 +1335,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
